--- a/Excel RPG/Game/Interpreter.xlsx
+++ b/Excel RPG/Game/Interpreter.xlsx
@@ -23,7 +23,7 @@
     <definedName name="PREVINPCOUNT">Sheet1!$E$5</definedName>
     <definedName name="STARTINPUT" comment="Boolean value for whether START is called">Sheet1!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="10" iterateDelta="0.1"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="1" iterateDelta="0.1"/>
 </workbook>
 </file>
 
@@ -251,13 +251,7 @@
       <definedName name="Input" refersTo="='Sheet1'!$B$2"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>b</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
     </sheetDataSet>
@@ -555,7 +549,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,9 +560,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="1">
         <f>[1]!Input</f>
-        <v>b</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -601,9 +595,9 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="1">
         <f ca="1">IF(PREVINPCOUNT&lt;0,In,PREVINP)</f>
-        <v>b</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/Excel RPG/Game/Interpreter.xlsx
+++ b/Excel RPG/Game/Interpreter.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel RPG/Game/Interpreter.xlsx
+++ b/Excel RPG/Game/Interpreter.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="8">
-        <f ca="1">IF(In&lt;&gt;PREVINP,PREVINPCOUNT-1,0)</f>
+        <f ca="1">IFERROR(IF(In&lt;&gt;PREVINP,PREVINPCOUNT-1,0),0)</f>
         <v>0</v>
       </c>
     </row>

--- a/Excel RPG/Game/Interpreter.xlsx
+++ b/Excel RPG/Game/Interpreter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="6390"/>
+    <workbookView xWindow="-75" yWindow="60" windowWidth="14265" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="PREVINPCOUNT">Sheet1!$E$5</definedName>
     <definedName name="STARTINPUT" comment="Boolean value for whether START is called">Sheet1!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="1" iterateDelta="0.1"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="10" iterateDelta="0.1"/>
 </workbook>
 </file>
 
@@ -549,7 +549,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
